--- a/Exports/charging_data.xlsx
+++ b/Exports/charging_data.xlsx
@@ -481,10 +481,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -495,10 +495,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +509,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -523,10 +523,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,10 +537,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>37.5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -551,10 +551,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>48.5</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -579,10 +579,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -593,10 +593,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>59.5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -621,10 +621,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>70.5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -635,10 +635,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>81.5</v>
+        <v>16.875</v>
       </c>
       <c r="D15" t="n">
         <v>2.75</v>
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>87</v>
+        <v>23.75</v>
       </c>
       <c r="D16" t="n">
         <v>2.75</v>
@@ -677,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>92.5</v>
+        <v>30.625</v>
       </c>
       <c r="D17" t="n">
         <v>2.75</v>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>98</v>
+        <v>37.5</v>
       </c>
       <c r="D18" t="n">
         <v>2.75</v>
@@ -705,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>103.5</v>
+        <v>44.375</v>
       </c>
       <c r="D19" t="n">
         <v>2.75</v>
@@ -716,13 +716,13 @@
         <v>1.5625</v>
       </c>
       <c r="B20" t="n">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>51.25</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="21">
@@ -730,13 +730,13 @@
         <v>1.572916666666667</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>58.125</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="22">
@@ -744,13 +744,13 @@
         <v>1.583333333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="23">
@@ -758,13 +758,13 @@
         <v>1.59375</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>71.875</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="24">
@@ -772,13 +772,13 @@
         <v>1.604166666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>78.75</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="25">
@@ -786,13 +786,13 @@
         <v>1.614583333333333</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>85.625</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="26">
@@ -800,13 +800,13 @@
         <v>1.625</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>92.5</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="27">
@@ -814,13 +814,13 @@
         <v>1.635416666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">

--- a/Exports/charging_data.xlsx
+++ b/Exports/charging_data.xlsx
@@ -464,7 +464,7 @@
         <v>1.375</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
@@ -478,7 +478,7 @@
         <v>1.385416666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -492,7 +492,7 @@
         <v>1.395833333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
@@ -506,7 +506,7 @@
         <v>1.40625</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
@@ -520,7 +520,7 @@
         <v>1.416666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>10</v>
@@ -534,7 +534,7 @@
         <v>1.427083333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
@@ -548,7 +548,7 @@
         <v>1.4375</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>10</v>
@@ -562,7 +562,7 @@
         <v>1.447916666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1.458333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>10</v>
@@ -590,7 +590,7 @@
         <v>1.46875</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         <v>1.479166666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>10</v>
@@ -618,7 +618,7 @@
         <v>1.489583333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>10</v>
@@ -632,7 +632,7 @@
         <v>1.5</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>10</v>
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>16.875</v>
+        <v>13.4375</v>
       </c>
       <c r="D15" t="n">
         <v>2.75</v>
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>23.75</v>
+        <v>16.875</v>
       </c>
       <c r="D16" t="n">
         <v>2.75</v>
@@ -677,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>30.625</v>
+        <v>20.3125</v>
       </c>
       <c r="D17" t="n">
         <v>2.75</v>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>37.5</v>
+        <v>23.75</v>
       </c>
       <c r="D18" t="n">
         <v>2.75</v>
@@ -705,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>44.375</v>
+        <v>27.1875</v>
       </c>
       <c r="D19" t="n">
         <v>2.75</v>
@@ -719,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>51.25</v>
+        <v>30.625</v>
       </c>
       <c r="D20" t="n">
         <v>2.75</v>
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>58.125</v>
+        <v>34.0625</v>
       </c>
       <c r="D21" t="n">
         <v>2.75</v>
@@ -747,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>65</v>
+        <v>37.5</v>
       </c>
       <c r="D22" t="n">
         <v>2.75</v>
@@ -761,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>71.875</v>
+        <v>40.9375</v>
       </c>
       <c r="D23" t="n">
         <v>2.75</v>
@@ -775,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>78.75</v>
+        <v>44.375</v>
       </c>
       <c r="D24" t="n">
         <v>2.75</v>
@@ -789,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>85.625</v>
+        <v>47.8125</v>
       </c>
       <c r="D25" t="n">
         <v>2.75</v>
@@ -803,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>92.5</v>
+        <v>51.25</v>
       </c>
       <c r="D26" t="n">
         <v>2.75</v>
@@ -814,13 +814,13 @@
         <v>1.635416666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>54.6875</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="28">
@@ -828,13 +828,13 @@
         <v>1.645833333333333</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>58.125</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="29">
@@ -842,13 +842,13 @@
         <v>1.65625</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>61.5625</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="30">
@@ -856,13 +856,13 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="31">
@@ -870,13 +870,13 @@
         <v>1.677083333333333</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>68.4375</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="32">
@@ -884,13 +884,13 @@
         <v>1.6875</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>100</v>
+        <v>71.875</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="33">
@@ -898,13 +898,13 @@
         <v>1.697916666666667</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>100</v>
+        <v>75.3125</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="34">
@@ -912,13 +912,13 @@
         <v>1.708333333333333</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>78.75</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="35">
@@ -926,13 +926,13 @@
         <v>1.71875</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>82.1875</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="36">
@@ -940,13 +940,13 @@
         <v>1.729166666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>85.625</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="37">
@@ -954,13 +954,13 @@
         <v>1.739583333333333</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>85.91145833333333</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -968,13 +968,13 @@
         <v>1.75</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="39">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="40">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1013,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="43">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="44">
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="45">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1083,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="48">
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="49">
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="50">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
+        <v>86.0546875</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
   </sheetData>
